--- a/Ordering System/order home/gg.xlsx
+++ b/Ordering System/order home/gg.xlsx
@@ -4,15 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="MANGO MALDA" sheetId="1" r:id="rId1"/>
     <sheet name="Red Potato" sheetId="5" r:id="rId2"/>
     <sheet name="APPLE FUJI NEPALI" sheetId="6" r:id="rId3"/>
-    <sheet name="sales" sheetId="3" r:id="rId4"/>
-    <sheet name="mbq" sheetId="2" r:id="rId5"/>
-    <sheet name="stock" sheetId="4" r:id="rId6"/>
+    <sheet name="potato red" sheetId="7" r:id="rId4"/>
+    <sheet name="APPLE FRUITS china 10" sheetId="8" r:id="rId5"/>
+    <sheet name="APPLE FRUITS 10" sheetId="10" r:id="rId6"/>
+    <sheet name="BANANA GREEN BIG FRUITS 12" sheetId="11" r:id="rId7"/>
+    <sheet name="MANDARIN FRUITS 20" sheetId="12" r:id="rId8"/>
+    <sheet name="sales" sheetId="3" r:id="rId9"/>
+    <sheet name="mbq" sheetId="2" r:id="rId10"/>
+    <sheet name="stock" sheetId="4" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="78">
   <si>
     <t>MANGO MALDA</t>
   </si>
@@ -229,6 +234,36 @@
   <si>
     <t>APPLE FUJI NEPALI</t>
   </si>
+  <si>
+    <t>Potato red</t>
+  </si>
+  <si>
+    <t>potato red</t>
+  </si>
+  <si>
+    <t>moq round</t>
+  </si>
+  <si>
+    <t>APPLE FRUITS 10</t>
+  </si>
+  <si>
+    <t>APPLE China FRUITS 10</t>
+  </si>
+  <si>
+    <t>Apple china fruits</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>BANANA GREEN BIG FRUITS 12</t>
+  </si>
+  <si>
+    <t>BANANA GREEN</t>
+  </si>
+  <si>
+    <t>MANDARIN FRUITS 20</t>
+  </si>
 </sst>
 </file>
 
@@ -243,12 +278,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -263,8 +304,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,7 +597,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -1274,6 +1318,1502 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:BM28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="AV1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW1">
+        <v>2.8502608700000001</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY1">
+        <v>15</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA1">
+        <v>10</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE1">
+        <v>6</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BI1">
+        <v>128.12217390000001</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BK1">
+        <v>15</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>0.89582608699999999</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>11.218173910000001</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>7.3760869570000001</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1.381043478</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>2.8502608700000001</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>11.218173910000001</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:65" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="M3:N28">
+    <sortCondition ref="M3"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2">
+        <v>265</v>
+      </c>
+      <c r="O2">
+        <v>32</v>
+      </c>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>47</v>
+      </c>
+      <c r="E3">
+        <v>-6</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3">
+        <v>384</v>
+      </c>
+      <c r="O3">
+        <v>91</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>263</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="H4">
+        <v>48</v>
+      </c>
+      <c r="M4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4">
+        <v>375</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>116</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5">
+        <v>388</v>
+      </c>
+      <c r="O5">
+        <v>172</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="M6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6">
+        <v>266</v>
+      </c>
+      <c r="O6">
+        <v>138</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>122</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="M7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7">
+        <v>245</v>
+      </c>
+      <c r="O7">
+        <v>125</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>156</v>
+      </c>
+      <c r="D8">
+        <v>23</v>
+      </c>
+      <c r="M8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8">
+        <v>374</v>
+      </c>
+      <c r="O8">
+        <v>127</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>116</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="M9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>47</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>83</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="M10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10">
+        <v>236</v>
+      </c>
+      <c r="O10">
+        <v>88</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11">
+        <v>58</v>
+      </c>
+      <c r="C11">
+        <v>406</v>
+      </c>
+      <c r="D11">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="M11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11">
+        <v>38</v>
+      </c>
+      <c r="O11">
+        <v>116</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>236</v>
+      </c>
+      <c r="C12">
+        <v>88</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>13</v>
+      </c>
+      <c r="M12" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12">
+        <v>58</v>
+      </c>
+      <c r="O12">
+        <v>406</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13">
+        <v>245</v>
+      </c>
+      <c r="C13">
+        <v>125</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13">
+        <v>268</v>
+      </c>
+      <c r="O13">
+        <v>595</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>265</v>
+      </c>
+      <c r="C14">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>17</v>
+      </c>
+      <c r="M14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14">
+        <v>43</v>
+      </c>
+      <c r="O14">
+        <v>83</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15">
+        <v>266</v>
+      </c>
+      <c r="C15">
+        <v>138</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>35</v>
+      </c>
+      <c r="H15">
+        <v>45</v>
+      </c>
+      <c r="M15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>263</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>267</v>
+      </c>
+      <c r="C16">
+        <v>229</v>
+      </c>
+      <c r="D16">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>-1</v>
+      </c>
+      <c r="H16">
+        <v>21</v>
+      </c>
+      <c r="M16" t="s">
+        <v>59</v>
+      </c>
+      <c r="N16">
+        <v>377</v>
+      </c>
+      <c r="O16">
+        <v>136</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17">
+        <v>268</v>
+      </c>
+      <c r="C17">
+        <v>595</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <v>17</v>
+      </c>
+      <c r="H17">
+        <v>98</v>
+      </c>
+      <c r="M17" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17">
+        <v>376</v>
+      </c>
+      <c r="O17">
+        <v>134</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18">
+        <v>269</v>
+      </c>
+      <c r="C18">
+        <v>39</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="M18" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18">
+        <v>267</v>
+      </c>
+      <c r="O18">
+        <v>229</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19">
+        <v>374</v>
+      </c>
+      <c r="C19">
+        <v>127</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="M19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N19">
+        <v>12</v>
+      </c>
+      <c r="O19">
+        <v>122</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20">
+        <v>375</v>
+      </c>
+      <c r="H20">
+        <v>30</v>
+      </c>
+      <c r="M20" t="s">
+        <v>52</v>
+      </c>
+      <c r="N20">
+        <v>269</v>
+      </c>
+      <c r="O20">
+        <v>39</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21">
+        <v>376</v>
+      </c>
+      <c r="C21">
+        <v>134</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="M21" t="s">
+        <v>54</v>
+      </c>
+      <c r="N21">
+        <v>383</v>
+      </c>
+      <c r="O21">
+        <v>119</v>
+      </c>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22">
+        <v>377</v>
+      </c>
+      <c r="C22">
+        <v>136</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22">
+        <v>28</v>
+      </c>
+      <c r="O22">
+        <v>156</v>
+      </c>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23">
+        <v>383</v>
+      </c>
+      <c r="C23">
+        <v>119</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>-3</v>
+      </c>
+      <c r="M23" t="s">
+        <v>57</v>
+      </c>
+      <c r="N23">
+        <v>386</v>
+      </c>
+      <c r="O23">
+        <v>64</v>
+      </c>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24">
+        <v>384</v>
+      </c>
+      <c r="C24">
+        <v>91</v>
+      </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
+      <c r="M24" t="s">
+        <v>41</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>116</v>
+      </c>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25">
+        <v>385</v>
+      </c>
+      <c r="C25">
+        <v>53</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="M25" t="s">
+        <v>42</v>
+      </c>
+      <c r="N25">
+        <v>5</v>
+      </c>
+      <c r="O25">
+        <v>80</v>
+      </c>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26">
+        <v>386</v>
+      </c>
+      <c r="C26">
+        <v>64</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>9</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>27</v>
+      </c>
+      <c r="M26" t="s">
+        <v>60</v>
+      </c>
+      <c r="N26">
+        <v>385</v>
+      </c>
+      <c r="O26">
+        <v>53</v>
+      </c>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27">
+        <v>388</v>
+      </c>
+      <c r="C27">
+        <v>172</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>25</v>
+      </c>
+      <c r="M27" t="s">
+        <v>62</v>
+      </c>
+      <c r="N27">
+        <v>389</v>
+      </c>
+      <c r="V27" s="1"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28">
+        <v>389</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="M2:O27">
+    <sortCondition ref="M2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1408,7 +2948,7 @@
         <v>7.6529999999999987</v>
       </c>
       <c r="G5">
-        <f>IF(AND(F5&lt;E5,F5&gt;0),E5,MROUND(F5,10))</f>
+        <f t="shared" ref="G5:G30" si="0">IF(AND(F5&lt;E5,F5&gt;0),E5,MROUND(F5,10))</f>
         <v>10</v>
       </c>
       <c r="H5">
@@ -1429,11 +2969,11 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F30" si="0">IF((B6+C6-D6)&lt;0,0,B6+C6-D6)</f>
+        <f t="shared" ref="F6:F30" si="1">IF((B6+C6-D6)&lt;0,0,B6+C6-D6)</f>
         <v>0.89582608699999999</v>
       </c>
       <c r="G6">
-        <f>IF(AND(F6&lt;E6,F6&gt;0),E6,MROUND(F6,10))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H6">
@@ -1454,11 +2994,11 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.702</v>
       </c>
       <c r="G7">
-        <f>IF(AND(F7&lt;E7,F7&gt;0),E7,MROUND(F7,10))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H7">
@@ -1482,11 +3022,11 @@
         <v>10</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>IF(AND(F8&lt;E8,F8&gt;0),E8,MROUND(F8,10))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8">
@@ -1510,11 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>IF(AND(F9&lt;E9,F9&gt;0),E9,MROUND(F9,10))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9">
@@ -1535,11 +3075,11 @@
         <v>10</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G10">
-        <f>IF(AND(F10&lt;E10,F10&gt;0),E10,MROUND(F10,10))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H10">
@@ -1560,11 +3100,11 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G11">
-        <f>IF(AND(F11&lt;E11,F11&gt;0),E11,MROUND(F11,10))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H11">
@@ -1585,11 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G12">
-        <f>IF(AND(F12&lt;E12,F12&gt;0),E12,MROUND(F12,10))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H12">
@@ -1610,11 +3150,11 @@
         <v>10</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8502608700000001</v>
       </c>
       <c r="G13">
-        <f>IF(AND(F13&lt;E13,F13&gt;0),E13,MROUND(F13,10))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H13">
@@ -1635,11 +3175,11 @@
         <v>10</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G14">
-        <f>IF(AND(F14&lt;E14,F14&gt;0),E14,MROUND(F14,10))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H14">
@@ -1660,11 +3200,11 @@
         <v>10</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="G15">
-        <f>IF(AND(F15&lt;E15,F15&gt;0),E15,MROUND(F15,10))</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H15">
@@ -1688,11 +3228,11 @@
         <v>10</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4499999999999993</v>
       </c>
       <c r="G16">
-        <f>IF(AND(F16&lt;E16,F16&gt;0),E16,MROUND(F16,10))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H16">
@@ -1713,11 +3253,11 @@
         <v>10</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G17">
-        <f>IF(AND(F17&lt;E17,F17&gt;0),E17,MROUND(F17,10))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H17">
@@ -1738,11 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G18">
-        <f>IF(AND(F18&lt;E18,F18&gt;0),E18,MROUND(F18,10))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H18">
@@ -1763,11 +3303,11 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.641999999999999</v>
       </c>
       <c r="G19">
-        <f>IF(AND(F19&lt;E19,F19&gt;0),E19,MROUND(F19,10))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H19">
@@ -1791,11 +3331,11 @@
         <v>10</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.5</v>
       </c>
       <c r="G20">
-        <f>IF(AND(F20&lt;E20,F20&gt;0),E20,MROUND(F20,10))</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H20">
@@ -1816,11 +3356,11 @@
         <v>10</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G21">
-        <f>IF(AND(F21&lt;E21,F21&gt;0),E21,MROUND(F21,10))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H21">
@@ -1841,11 +3381,11 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G22">
-        <f>IF(AND(F22&lt;E22,F22&gt;0),E22,MROUND(F22,10))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H22">
@@ -1863,11 +3403,11 @@
         <v>10</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G23">
-        <f>IF(AND(F23&lt;E23,F23&gt;0),E23,MROUND(F23,10))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H23">
@@ -1891,11 +3431,11 @@
         <v>10</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.0169999999999995</v>
       </c>
       <c r="G24">
-        <f>IF(AND(F24&lt;E24,F24&gt;0),E24,MROUND(F24,10))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H24">
@@ -1916,11 +3456,11 @@
         <v>10</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3330000000000002</v>
       </c>
       <c r="G25">
-        <f>IF(AND(F25&lt;E25,F25&gt;0),E25,MROUND(F25,10))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H25">
@@ -1944,11 +3484,11 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G26">
-        <f>IF(AND(F26&lt;E26,F26&gt;0),E26,MROUND(F26,10))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H26">
@@ -1969,11 +3509,11 @@
         <v>10</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G27">
-        <f>IF(AND(F27&lt;E27,F27&gt;0),E27,MROUND(F27,10))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H27">
@@ -1997,11 +3537,11 @@
         <v>10</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0549999999999997</v>
       </c>
       <c r="G28">
-        <f>IF(AND(F28&lt;E28,F28&gt;0),E28,MROUND(F28,10))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H28">
@@ -2019,11 +3559,11 @@
         <v>10</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G29">
-        <f>IF(AND(F29&lt;E29,F29&gt;0),E29,MROUND(F29,10))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H29">
@@ -2044,11 +3584,11 @@
         <v>10</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G30">
-        <f>IF(AND(F30&lt;E30,F30&gt;0),E30,MROUND(F30,10))</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H30">
@@ -2064,8 +3604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2668,1190 +4208,3754 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>7116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
+        <f>IF((B4+C4-D4)&lt;0,0,B4+C4-D4)</f>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <f>IF(AND(F4&lt;E4,F4&gt;0),E4,MROUND(F4,E4))</f>
+        <v>10</v>
+      </c>
+      <c r="H4" s="2">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F29" si="0">IF((B5+C5-D5)&lt;0,0,B5+C5-D5)</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G29" si="1">IF(AND(F5&lt;E5,F5&gt;0),E5,MROUND(F5,E5))</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5.859</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>11.218173910000001</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>11.218173910000001</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="O7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>4.6660000000000004</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>45</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>7.335</v>
+      </c>
+      <c r="C11">
+        <v>1.381043478</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.71604347799999957</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="O11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>1.548</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H13" s="2">
+        <v>10</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>6.7850000000000001</v>
+      </c>
+      <c r="C15">
+        <v>11.218173910000001</v>
+      </c>
+      <c r="D15">
+        <v>98</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>9.9580000000000002</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
         <v>48</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>4.6529999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0.70199999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>2.84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>5.85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10">
-        <v>1.335</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12">
-        <v>1.24</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>6.45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>6.6420000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="O19" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1.9990000000000001</v>
       </c>
       <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21">
-        <v>1.0169999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22">
-        <v>3.3330000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>2.3679999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22">
+        <v>1.548</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2">
+        <v>10</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H23" s="2">
+        <v>10</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P23">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2">
+        <v>10</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H24" s="2">
+        <v>10</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24">
+        <v>4.6660000000000004</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>6.35</v>
       </c>
       <c r="C25">
-        <v>7.0549999999999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
+        <v>7</v>
+      </c>
+      <c r="P25">
+        <v>5.859</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
+        <v>15</v>
+      </c>
+      <c r="P26">
+        <v>6.35</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-      <c r="C27">
-        <v>0</v>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27">
+        <v>6.7850000000000001</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="O28" t="s">
+        <v>22</v>
+      </c>
+      <c r="P28">
+        <v>7.335</v>
+      </c>
+      <c r="Q28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+      <c r="O29" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29">
+        <v>9.9580000000000002</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <f>SUM(G4:G29)</f>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="I2:J27">
-    <sortCondition ref="I2"/>
+  <sortState ref="O4:Q29">
+    <sortCondition ref="P4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BO30"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E28"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="AX1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>2.99</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <f>IF((B4+C4-D4)&lt;0,0,B4+C4-D4)</f>
+        <v>12.99</v>
+      </c>
+      <c r="G4">
+        <f>IF(AND(F4&lt;E4,F4&gt;0),E4,MROUND(F4,E4))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <v>2.5249999999999999</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F29" si="0">IF((B5+C5-D5)&lt;0,0,B5+C5-D5)</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G29" si="1">IF(AND(F5&lt;E5,F5&gt;0),E5,MROUND(F5,E5))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6">
+        <v>0.51</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>9.89</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8">
+        <v>2.4449999999999998</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>3.51</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
         <v>23</v>
       </c>
-      <c r="AY1">
-        <v>2.8502608700000001</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BA1">
-        <v>15</v>
-      </c>
-      <c r="BB1" t="s">
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10">
+        <v>1.165</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>3.395</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>4.3949999999999996</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>2.105</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>3.7679999999999998</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14">
+        <v>8.8450000000000006</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
         <v>25</v>
       </c>
-      <c r="BC1">
-        <v>10</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BG1">
-        <v>6</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BK1">
-        <v>128.12217390000001</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>29</v>
-      </c>
-      <c r="BM1">
-        <v>15</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>30</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3">
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>10.45</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>3.03</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1.0299999999999994</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>8.7530000000000001</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18">
+        <v>1.7070000000000001</v>
+      </c>
+      <c r="C18">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>0.89582608699999999</v>
-      </c>
-      <c r="E4">
+      <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>6.8040000000000003</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>6.3529999999999998</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>14.353</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22">
+        <v>4.157</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>2.157</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23">
+        <v>3.94</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>7.9399999999999995</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>5.1079999999999997</v>
+      </c>
+      <c r="C24">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>7.1080000000000005</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25">
+        <v>7.6619999999999999</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26">
+        <v>3.093</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>2.093</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27">
+        <v>1.2070000000000001</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>5.2069999999999999</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>7.3760869570000001</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="I7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="I10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>2.8502608700000001</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="I11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="I12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-      <c r="D13">
-        <v>15</v>
-      </c>
-      <c r="E13">
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29">
+        <v>0.16</v>
+      </c>
+      <c r="C29">
         <v>4</v>
       </c>
-      <c r="I13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14">
-        <v>20</v>
-      </c>
-      <c r="D14">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="I14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="I15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:67" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-      <c r="I16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="I17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18">
-        <v>15</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="I18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19">
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="I19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20">
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <v>10</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="I20" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="I21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="I22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23">
-        <v>10</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="I23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24">
-        <v>10</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="I24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
-      </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="I25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26">
-        <v>10</v>
-      </c>
-      <c r="D26">
-        <v>6</v>
-      </c>
-      <c r="I26" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27">
-        <v>10</v>
-      </c>
-      <c r="I27" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28">
-        <v>10</v>
-      </c>
-      <c r="D28">
-        <v>20</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="I28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I30" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30">
-        <v>3</v>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>4.16</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="I5:J30">
-    <sortCondition ref="I5"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1">
+        <v>2009</v>
+      </c>
+      <c r="D1">
+        <v>10</v>
+      </c>
+      <c r="E1">
+        <v>190</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <f>IF((B4+C4-D4)&lt;0,0,B4+C4-D4)</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>IF(AND(F4&lt;E4,F4&gt;0),E4,MROUND(F4,E4))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F29" si="0">IF((B5+C5-D5)&lt;0,0,B5+C5-D5)</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G10" si="1">IF(AND(F5&lt;E5,F5&gt;0),E5,MROUND(F5,E5))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G11">
+        <f>IF(AND(F11&lt;E11,F11&gt;0),E11,MROUND(F11,E11))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:G29" si="2">IF(AND(F12&lt;E12,F12&gt;0),E12,MROUND(F12,E12))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>10.057</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>5.2910000000000004</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1">
+        <v>2054</v>
+      </c>
+      <c r="D1">
+        <v>12</v>
+      </c>
+      <c r="E1">
+        <v>552</v>
+      </c>
+      <c r="F1">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <f>IF((B4+C4-D4)&lt;0,0,B4+C4-D4)</f>
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <f>IF(AND(F4&lt;E4,F4&gt;0),E4,MROUND(F4,12))</f>
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <v>52</v>
+      </c>
+      <c r="C5">
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <v>91</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F29" si="0">IF((B5+C5-D5)&lt;0,0,B5+C5-D5)</f>
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G29" si="1">IF(AND(F5&lt;E5,F5&gt;0),E5,MROUND(F5,12))</f>
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6">
+        <v>14.333</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>32.332999999999998</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="H6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7">
+        <v>14.667</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7">
+        <v>172</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="2">
+        <v>191</v>
+      </c>
+      <c r="C8" s="2">
+        <v>84</v>
+      </c>
+      <c r="D8">
+        <v>138</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="H8" s="2">
+        <v>132</v>
+      </c>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>123</v>
+      </c>
+      <c r="C9">
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <v>125</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="H9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10">
         <v>39</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>-6</v>
-      </c>
-      <c r="D3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="D6">
+      <c r="C10">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>127</v>
+      </c>
+      <c r="E10">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>27.667000000000002</v>
+      </c>
+      <c r="C11">
+        <v>48</v>
+      </c>
+      <c r="D11">
+        <v>47</v>
+      </c>
+      <c r="E11">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11">
-        <v>58</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>28.667000000000002</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="H11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
       <c r="B12">
-        <v>236</v>
+        <v>69</v>
       </c>
       <c r="C12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>88</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="H12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B13">
-        <v>245</v>
+        <v>39</v>
       </c>
       <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <v>116</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14">
+        <v>125.667</v>
+      </c>
+      <c r="C14">
+        <v>96</v>
+      </c>
+      <c r="D14">
+        <v>406</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15">
+        <v>129</v>
+      </c>
+      <c r="C15">
+        <v>132</v>
+      </c>
+      <c r="D15">
+        <v>595</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>41.332999999999998</v>
+      </c>
+      <c r="C16">
         <v>48</v>
       </c>
-      <c r="B14">
-        <v>265</v>
-      </c>
-      <c r="D14">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15">
-        <v>266</v>
-      </c>
-      <c r="D15">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D16">
+        <v>83</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>6.3329999999999984</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>127</v>
+      </c>
+      <c r="C17">
+        <v>180</v>
+      </c>
+      <c r="D17">
+        <v>263</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="H17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18">
+        <v>56</v>
+      </c>
+      <c r="C18">
+        <v>72</v>
+      </c>
+      <c r="D18">
+        <v>136</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19">
+        <v>59</v>
+      </c>
+      <c r="C19">
+        <v>72</v>
+      </c>
+      <c r="D19">
+        <v>134</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>50</v>
       </c>
-      <c r="B16">
-        <v>267</v>
-      </c>
-      <c r="C16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17">
-        <v>268</v>
-      </c>
-      <c r="D17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B20">
+        <v>79</v>
+      </c>
+      <c r="C20">
+        <v>72</v>
+      </c>
+      <c r="D20">
+        <v>229</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>34.332999999999998</v>
+      </c>
+      <c r="C21">
+        <v>72</v>
+      </c>
+      <c r="D21">
+        <v>122</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>52</v>
       </c>
-      <c r="B18">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21">
-        <v>376</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>59</v>
-      </c>
       <c r="B22">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49.332999999999998</v>
+      </c>
+      <c r="C22">
+        <v>60</v>
+      </c>
+      <c r="D22">
+        <v>39</v>
+      </c>
+      <c r="E22">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>70.332999999999998</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="H22">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
       <c r="B23">
-        <v>383</v>
+        <v>74</v>
+      </c>
+      <c r="C23">
+        <v>48</v>
       </c>
       <c r="D23">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="E23">
+        <v>12</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>59.332999999999998</v>
+      </c>
+      <c r="C24">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <v>156</v>
+      </c>
+      <c r="E24">
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25">
+        <v>45</v>
+      </c>
+      <c r="C25">
+        <v>48</v>
+      </c>
+      <c r="D25">
+        <v>64</v>
+      </c>
+      <c r="E25">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="H25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>116</v>
+      </c>
+      <c r="E26">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>36</v>
+      </c>
+      <c r="D27">
+        <v>80</v>
+      </c>
+      <c r="E27">
+        <v>12</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28">
+        <v>18.667000000000002</v>
+      </c>
+      <c r="C28">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <v>53</v>
+      </c>
+      <c r="E28">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29">
+        <v>37.667000000000002</v>
+      </c>
+      <c r="C29">
+        <v>36</v>
+      </c>
+      <c r="E29">
+        <v>12</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>73.667000000000002</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="H29">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1">
+        <v>2046</v>
+      </c>
+      <c r="D1">
+        <v>20</v>
+      </c>
+      <c r="E1">
+        <v>520</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>55</v>
       </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z27"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:U27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>4.6529999999999996</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2.99</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2.5249999999999999</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="E4">
+        <v>5.859</v>
+      </c>
+      <c r="F4">
+        <v>0.51</v>
+      </c>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2.84</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>5.85</v>
+      </c>
+      <c r="E6">
+        <v>4.6660000000000004</v>
+      </c>
+      <c r="F6">
+        <v>2.4449999999999998</v>
+      </c>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>3.51</v>
+      </c>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1.165</v>
+      </c>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>7.335</v>
+      </c>
+      <c r="F9">
+        <v>3.395</v>
+      </c>
+      <c r="G9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>1.335</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1.548</v>
+      </c>
+      <c r="F10">
+        <v>2.105</v>
+      </c>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>3.7679999999999998</v>
+      </c>
+      <c r="G11">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12">
+        <v>1.24</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>8.8450000000000006</v>
+      </c>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>6.45</v>
+      </c>
+      <c r="E13">
+        <v>6.7850000000000001</v>
+      </c>
+      <c r="F13">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>3.03</v>
+      </c>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>9.9580000000000002</v>
+      </c>
+      <c r="F15">
+        <v>8.7530000000000001</v>
+      </c>
+      <c r="G15">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>6.6420000000000003</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1.7070000000000001</v>
+      </c>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>22.5</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="F18">
+        <v>6.8040000000000003</v>
+      </c>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>6.3529999999999998</v>
+      </c>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>4.157</v>
+      </c>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>3.94</v>
+      </c>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>3.3330000000000002</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>5.1079999999999997</v>
+      </c>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>2.3679999999999999</v>
+      </c>
+      <c r="E23">
+        <v>6.35</v>
+      </c>
+      <c r="F23">
+        <v>7.6619999999999999</v>
+      </c>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
       <c r="B24">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>3.093</v>
+      </c>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>7.0549999999999997</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1.2070000000000001</v>
+      </c>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>60</v>
       </c>
-      <c r="B25">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>57</v>
-      </c>
       <c r="B26">
-        <v>386</v>
-      </c>
-      <c r="D26">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27">
-        <v>388</v>
-      </c>
-      <c r="D27">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28">
-        <v>389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0.16</v>
+      </c>
+      <c r="Y27" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="J2:K27">
-    <sortCondition ref="J2"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Ordering System/order home/gg.xlsx
+++ b/Ordering System/order home/gg.xlsx
@@ -15,9 +15,10 @@
     <sheet name="APPLE FRUITS 10" sheetId="10" r:id="rId6"/>
     <sheet name="BANANA GREEN BIG FRUITS 12" sheetId="11" r:id="rId7"/>
     <sheet name="MANDARIN FRUITS 20" sheetId="12" r:id="rId8"/>
-    <sheet name="sales" sheetId="3" r:id="rId9"/>
-    <sheet name="mbq" sheetId="2" r:id="rId10"/>
-    <sheet name="stock" sheetId="4" r:id="rId11"/>
+    <sheet name="BEGAMFELLI (MANGO) FRUITS 10" sheetId="13" r:id="rId9"/>
+    <sheet name="sales" sheetId="3" r:id="rId10"/>
+    <sheet name="mbq" sheetId="2" r:id="rId11"/>
+    <sheet name="stock" sheetId="4" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="109">
   <si>
     <t>MANGO MALDA</t>
   </si>
@@ -263,6 +264,99 @@
   </si>
   <si>
     <t>MANDARIN FRUITS 20</t>
+  </si>
+  <si>
+    <t>BEGAMFELLI (MANGO) FRUITS 10</t>
+  </si>
+  <si>
+    <t>{"bmbs":"10"</t>
+  </si>
+  <si>
+    <t>bmbp:"20"</t>
+  </si>
+  <si>
+    <t>bmbj:"10"</t>
+  </si>
+  <si>
+    <t>bmgb:"10"</t>
+  </si>
+  <si>
+    <t>bmhg:"15"</t>
+  </si>
+  <si>
+    <t>bmkb:"10"</t>
+  </si>
+  <si>
+    <t>bmlz:"15"</t>
+  </si>
+  <si>
+    <t>bmmt:"10"</t>
+  </si>
+  <si>
+    <t>bmnt:"10"</t>
+  </si>
+  <si>
+    <t>bmnx:"15"</t>
+  </si>
+  <si>
+    <t>bmsk:"10"</t>
+  </si>
+  <si>
+    <t>bmsn:"10"</t>
+  </si>
+  <si>
+    <t>bmsd:"10"</t>
+  </si>
+  <si>
+    <t>bmsb:"10"</t>
+  </si>
+  <si>
+    <t>bman:"10"</t>
+  </si>
+  <si>
+    <t>bmbd:"10"</t>
+  </si>
+  <si>
+    <t>bmbm:"10"</t>
+  </si>
+  <si>
+    <t>bmcc:"20"</t>
+  </si>
+  <si>
+    <t>bmdh:"20"</t>
+  </si>
+  <si>
+    <t>bmjl2:"20"</t>
+  </si>
+  <si>
+    <t>bmpc:"20"</t>
+  </si>
+  <si>
+    <t>bmpc2:"25"</t>
+  </si>
+  <si>
+    <t>bmsp:"20"</t>
+  </si>
+  <si>
+    <t>bmtb:"10"</t>
+  </si>
+  <si>
+    <t>total:"250"</t>
+  </si>
+  <si>
+    <t>bmbkd:"20"</t>
+  </si>
+  <si>
+    <t>bmtr:"10"}</t>
+  </si>
+  <si>
+    <t>allocation</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>alo</t>
   </si>
 </sst>
 </file>
@@ -1323,10 +1417,713 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BM28"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:U26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1">
+        <v>1.2769999999999999</v>
+      </c>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>4.6529999999999996</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2.99</v>
+      </c>
+      <c r="T2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U2">
+        <v>0.5</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2.5249999999999999</v>
+      </c>
+      <c r="T3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3">
+        <v>11.715</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="E4">
+        <v>5.859</v>
+      </c>
+      <c r="F4">
+        <v>0.51</v>
+      </c>
+      <c r="T4" t="s">
+        <v>61</v>
+      </c>
+      <c r="U4">
+        <v>1.75</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2.84</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="T5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5">
+        <v>14.205</v>
+      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>5.85</v>
+      </c>
+      <c r="E6">
+        <v>4.6660000000000004</v>
+      </c>
+      <c r="F6">
+        <v>2.4449999999999998</v>
+      </c>
+      <c r="T6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U6">
+        <v>5.9269999999999996</v>
+      </c>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>3.51</v>
+      </c>
+      <c r="T7" t="s">
+        <v>53</v>
+      </c>
+      <c r="U7">
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1.165</v>
+      </c>
+      <c r="T8" t="s">
+        <v>39</v>
+      </c>
+      <c r="U8">
+        <v>5.8869999999999996</v>
+      </c>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>7.335</v>
+      </c>
+      <c r="F9">
+        <v>3.395</v>
+      </c>
+      <c r="G9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="T9" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9">
+        <v>9</v>
+      </c>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>1.335</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1.548</v>
+      </c>
+      <c r="F10">
+        <v>2.105</v>
+      </c>
+      <c r="T10" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10">
+        <v>3.5649999999999999</v>
+      </c>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>3.7679999999999998</v>
+      </c>
+      <c r="G11">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="T11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U11">
+        <v>11.54</v>
+      </c>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12">
+        <v>1.24</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>8.8450000000000006</v>
+      </c>
+      <c r="T12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U12">
+        <v>15.555</v>
+      </c>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>6.45</v>
+      </c>
+      <c r="E13">
+        <v>6.7850000000000001</v>
+      </c>
+      <c r="F13">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="T13" t="s">
+        <v>44</v>
+      </c>
+      <c r="U13">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>3.03</v>
+      </c>
+      <c r="T14" t="s">
+        <v>40</v>
+      </c>
+      <c r="U14">
+        <v>15.385</v>
+      </c>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>9.9580000000000002</v>
+      </c>
+      <c r="F15">
+        <v>8.7530000000000001</v>
+      </c>
+      <c r="G15">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="T15" t="s">
+        <v>59</v>
+      </c>
+      <c r="U15">
+        <v>4.6820000000000004</v>
+      </c>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>6.6420000000000003</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1.7070000000000001</v>
+      </c>
+      <c r="T16" t="s">
+        <v>56</v>
+      </c>
+      <c r="U16">
+        <v>4.157</v>
+      </c>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>22.5</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T17" t="s">
+        <v>50</v>
+      </c>
+      <c r="U17">
+        <v>6.8639999999999999</v>
+      </c>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="F18">
+        <v>6.8040000000000003</v>
+      </c>
+      <c r="T18" t="s">
+        <v>37</v>
+      </c>
+      <c r="U18">
+        <v>5.68</v>
+      </c>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>6.3529999999999998</v>
+      </c>
+      <c r="T19" t="s">
+        <v>52</v>
+      </c>
+      <c r="U19">
+        <v>4.3949999999999996</v>
+      </c>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>4.157</v>
+      </c>
+      <c r="T20" t="s">
+        <v>54</v>
+      </c>
+      <c r="U20">
+        <v>7.2919999999999998</v>
+      </c>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>3.94</v>
+      </c>
+      <c r="T21" t="s">
+        <v>43</v>
+      </c>
+      <c r="U21">
+        <v>5.8760000000000003</v>
+      </c>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>3.3330000000000002</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>5.1079999999999997</v>
+      </c>
+      <c r="T22" t="s">
+        <v>57</v>
+      </c>
+      <c r="U22">
+        <v>2.665</v>
+      </c>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>2.3679999999999999</v>
+      </c>
+      <c r="E23">
+        <v>6.35</v>
+      </c>
+      <c r="F23">
+        <v>7.6619999999999999</v>
+      </c>
+      <c r="T23" t="s">
+        <v>41</v>
+      </c>
+      <c r="U23">
+        <v>2.3580000000000001</v>
+      </c>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>3.093</v>
+      </c>
+      <c r="T24" t="s">
+        <v>42</v>
+      </c>
+      <c r="U24">
+        <v>2.5880000000000001</v>
+      </c>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>7.0549999999999997</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1.2070000000000001</v>
+      </c>
+      <c r="T25" t="s">
+        <v>60</v>
+      </c>
+      <c r="U25">
+        <v>1.4330000000000001</v>
+      </c>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="T26" t="s">
+        <v>62</v>
+      </c>
+      <c r="U26">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0.16</v>
+      </c>
+      <c r="X27" s="1"/>
+    </row>
+  </sheetData>
+  <sortState ref="T1:U26">
+    <sortCondition ref="T1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:BM29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,6 +2203,87 @@
       <c r="I2" t="s">
         <v>76</v>
       </c>
+      <c r="M2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" t="s">
+        <v>85</v>
+      </c>
+      <c r="T2" t="s">
+        <v>86</v>
+      </c>
+      <c r="U2" t="s">
+        <v>87</v>
+      </c>
+      <c r="V2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W2" t="s">
+        <v>89</v>
+      </c>
+      <c r="X2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="3" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -1449,6 +2327,12 @@
       <c r="I4">
         <v>48</v>
       </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -1472,6 +2356,12 @@
       <c r="I5">
         <v>18</v>
       </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -1495,6 +2385,12 @@
       <c r="I6">
         <v>60</v>
       </c>
+      <c r="M6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -1521,6 +2417,12 @@
       <c r="I7">
         <v>84</v>
       </c>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -1544,6 +2446,12 @@
       <c r="I8">
         <v>60</v>
       </c>
+      <c r="M8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -1567,6 +2475,12 @@
       <c r="I9">
         <v>24</v>
       </c>
+      <c r="M9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -1587,6 +2501,12 @@
       <c r="I10">
         <v>48</v>
       </c>
+      <c r="M10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -1610,6 +2530,12 @@
       <c r="I11">
         <v>60</v>
       </c>
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -1636,6 +2562,12 @@
       <c r="I12">
         <v>36</v>
       </c>
+      <c r="M12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -1659,6 +2591,12 @@
       <c r="I13">
         <v>96</v>
       </c>
+      <c r="M13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -1685,6 +2623,12 @@
       <c r="I14">
         <v>132</v>
       </c>
+      <c r="M14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -1710,6 +2654,12 @@
       </c>
       <c r="I15">
         <v>48</v>
+      </c>
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:65" x14ac:dyDescent="0.25">
@@ -1737,8 +2687,14 @@
       <c r="I16">
         <v>180</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>12</v>
       </c>
@@ -1760,8 +2716,14 @@
       <c r="I17">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -1783,8 +2745,14 @@
       <c r="I18">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>14</v>
       </c>
@@ -1809,8 +2777,14 @@
       <c r="I19">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -1829,8 +2803,14 @@
       <c r="I20">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +2826,14 @@
       <c r="I21">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>18</v>
       </c>
@@ -1872,8 +2858,14 @@
       <c r="I22">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>17</v>
       </c>
@@ -1898,8 +2890,14 @@
       <c r="I23">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>15</v>
       </c>
@@ -1924,8 +2922,14 @@
       <c r="I24">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>16</v>
       </c>
@@ -1947,8 +2951,14 @@
       <c r="I25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>27</v>
       </c>
@@ -1967,8 +2977,14 @@
       <c r="I26">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>28</v>
       </c>
@@ -1984,8 +3000,14 @@
       <c r="I27">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>30</v>
       </c>
@@ -2007,21 +3029,35 @@
       <c r="I28">
         <v>36</v>
       </c>
+      <c r="M28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="M3:N28">
-    <sortCondition ref="M3"/>
+  <sortState ref="M4:N29">
+    <sortCondition ref="M4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2033,11 +3069,11 @@
     <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>63</v>
       </c>
@@ -2056,21 +3092,15 @@
       <c r="H2" t="s">
         <v>69</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>48</v>
       </c>
-      <c r="N2">
-        <v>265</v>
-      </c>
-      <c r="O2">
-        <v>32</v>
-      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -2092,21 +3122,15 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>55</v>
       </c>
-      <c r="N3">
-        <v>384</v>
-      </c>
-      <c r="O3">
-        <v>91</v>
-      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -2125,18 +3149,15 @@
       <c r="H4">
         <v>48</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>58</v>
       </c>
-      <c r="N4">
-        <v>375</v>
-      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -2149,21 +3170,15 @@
       <c r="D5">
         <v>5</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>61</v>
       </c>
-      <c r="N5">
-        <v>388</v>
-      </c>
-      <c r="O5">
-        <v>172</v>
-      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -2176,21 +3191,15 @@
       <c r="F6">
         <v>12</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>49</v>
       </c>
-      <c r="N6">
-        <v>266</v>
-      </c>
-      <c r="O6">
-        <v>138</v>
-      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -2203,21 +3212,15 @@
       <c r="D7">
         <v>7</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>47</v>
       </c>
-      <c r="N7">
-        <v>245</v>
-      </c>
-      <c r="O7">
-        <v>125</v>
-      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -2230,21 +3233,15 @@
       <c r="D8">
         <v>23</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>53</v>
       </c>
-      <c r="N8">
-        <v>374</v>
-      </c>
-      <c r="O8">
-        <v>127</v>
-      </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -2257,21 +3254,15 @@
       <c r="D9">
         <v>7</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>39</v>
       </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>47</v>
-      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -2287,21 +3278,15 @@
       <c r="H10">
         <v>2</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>45</v>
       </c>
-      <c r="N10">
-        <v>236</v>
-      </c>
-      <c r="O10">
-        <v>88</v>
-      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -2317,21 +3302,15 @@
       <c r="E11">
         <v>7</v>
       </c>
-      <c r="M11" t="s">
+      <c r="O11" t="s">
         <v>38</v>
       </c>
-      <c r="N11">
-        <v>38</v>
-      </c>
-      <c r="O11">
-        <v>116</v>
-      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -2350,21 +3329,15 @@
       <c r="H12">
         <v>13</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
         <v>46</v>
       </c>
-      <c r="N12">
-        <v>58</v>
-      </c>
-      <c r="O12">
-        <v>406</v>
-      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -2380,21 +3353,15 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" t="s">
         <v>51</v>
       </c>
-      <c r="N13">
-        <v>268</v>
-      </c>
-      <c r="O13">
-        <v>595</v>
-      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -2410,21 +3377,15 @@
       <c r="F14">
         <v>17</v>
       </c>
-      <c r="M14" t="s">
+      <c r="O14" t="s">
         <v>44</v>
       </c>
-      <c r="N14">
-        <v>43</v>
-      </c>
-      <c r="O14">
-        <v>83</v>
-      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -2443,21 +3404,15 @@
       <c r="H15">
         <v>45</v>
       </c>
-      <c r="M15" t="s">
+      <c r="O15" t="s">
         <v>40</v>
       </c>
-      <c r="N15">
-        <v>2</v>
-      </c>
-      <c r="O15">
-        <v>263</v>
-      </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2476,21 +3431,15 @@
       <c r="H16">
         <v>21</v>
       </c>
-      <c r="M16" t="s">
+      <c r="O16" t="s">
         <v>59</v>
       </c>
-      <c r="N16">
-        <v>377</v>
-      </c>
-      <c r="O16">
-        <v>136</v>
-      </c>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -2509,21 +3458,15 @@
       <c r="H17">
         <v>98</v>
       </c>
-      <c r="M17" t="s">
+      <c r="O17" t="s">
         <v>56</v>
       </c>
-      <c r="N17">
-        <v>376</v>
-      </c>
-      <c r="O17">
-        <v>134</v>
-      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2536,21 +3479,15 @@
       <c r="D18">
         <v>4</v>
       </c>
-      <c r="M18" t="s">
+      <c r="O18" t="s">
         <v>50</v>
       </c>
-      <c r="N18">
-        <v>267</v>
-      </c>
-      <c r="O18">
-        <v>229</v>
-      </c>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
       <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -2563,21 +3500,15 @@
       <c r="D19">
         <v>12</v>
       </c>
-      <c r="M19" t="s">
+      <c r="O19" t="s">
         <v>37</v>
       </c>
-      <c r="N19">
-        <v>12</v>
-      </c>
-      <c r="O19">
-        <v>122</v>
-      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
       <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -2587,21 +3518,15 @@
       <c r="H20">
         <v>30</v>
       </c>
-      <c r="M20" t="s">
+      <c r="O20" t="s">
         <v>52</v>
       </c>
-      <c r="N20">
-        <v>269</v>
-      </c>
-      <c r="O20">
-        <v>39</v>
-      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -2617,21 +3542,15 @@
       <c r="F21">
         <v>3</v>
       </c>
-      <c r="M21" t="s">
+      <c r="O21" t="s">
         <v>54</v>
       </c>
-      <c r="N21">
-        <v>383</v>
-      </c>
-      <c r="O21">
-        <v>119</v>
-      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
       <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -2644,21 +3563,15 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="M22" t="s">
+      <c r="O22" t="s">
         <v>43</v>
       </c>
-      <c r="N22">
-        <v>28</v>
-      </c>
-      <c r="O22">
-        <v>156</v>
-      </c>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
       <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -2674,21 +3587,15 @@
       <c r="F23">
         <v>-3</v>
       </c>
-      <c r="M23" t="s">
+      <c r="O23" t="s">
         <v>57</v>
       </c>
-      <c r="N23">
-        <v>386</v>
-      </c>
-      <c r="O23">
-        <v>64</v>
-      </c>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
       <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -2701,21 +3608,15 @@
       <c r="D24">
         <v>11</v>
       </c>
-      <c r="M24" t="s">
+      <c r="O24" t="s">
         <v>41</v>
       </c>
-      <c r="N24">
-        <v>4</v>
-      </c>
-      <c r="O24">
-        <v>116</v>
-      </c>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
       <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -2728,21 +3629,15 @@
       <c r="D25">
         <v>3</v>
       </c>
-      <c r="M25" t="s">
+      <c r="O25" t="s">
         <v>42</v>
       </c>
-      <c r="N25">
-        <v>5</v>
-      </c>
-      <c r="O25">
-        <v>80</v>
-      </c>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
       <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -2764,19 +3659,13 @@
       <c r="H26">
         <v>27</v>
       </c>
-      <c r="M26" t="s">
+      <c r="O26" t="s">
         <v>60</v>
       </c>
-      <c r="N26">
-        <v>385</v>
-      </c>
-      <c r="O26">
-        <v>53</v>
-      </c>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -2792,15 +3681,12 @@
       <c r="F27">
         <v>25</v>
       </c>
-      <c r="M27" t="s">
+      <c r="O27" t="s">
         <v>62</v>
       </c>
-      <c r="N27">
-        <v>389</v>
-      </c>
-      <c r="V27" s="1"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -2809,8 +3695,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="M2:O27">
-    <sortCondition ref="M2"/>
+  <sortState ref="O2:P27">
+    <sortCondition ref="O2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6449,10 +7335,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:BM32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:AK1"/>
+    <sheetView tabSelected="1" topLeftCell="N16" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6:Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6460,7 +7346,7 @@
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>75</v>
       </c>
@@ -6476,8 +7362,368 @@
       <c r="F1">
         <v>1944</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>37</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
+      <c r="L2">
+        <v>36</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>132</v>
+      </c>
+      <c r="O2">
+        <v>60</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>24</v>
+      </c>
+      <c r="R2">
+        <v>36</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>12</v>
+      </c>
+      <c r="W2">
+        <v>48</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>72</v>
+      </c>
+      <c r="AC2">
+        <v>12</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>24</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>72</v>
+      </c>
+      <c r="AJ2">
+        <f>SUM(J2:AI2)</f>
+        <v>552</v>
+      </c>
+      <c r="AK2">
+        <v>1000</v>
+      </c>
+      <c r="AL2">
+        <f>AK2/AJ2</f>
+        <v>1.8115942028985508</v>
+      </c>
+      <c r="AN2">
+        <f>J2*$AL$2</f>
+        <v>21.739130434782609</v>
+      </c>
+      <c r="AO2">
+        <f t="shared" ref="AO2:BM2" si="0">K2*$AL$2</f>
+        <v>21.739130434782609</v>
+      </c>
+      <c r="AP2">
+        <f t="shared" si="0"/>
+        <v>65.217391304347828</v>
+      </c>
+      <c r="AQ2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <f t="shared" si="0"/>
+        <v>239.13043478260869</v>
+      </c>
+      <c r="AS2">
+        <f t="shared" si="0"/>
+        <v>108.69565217391305</v>
+      </c>
+      <c r="AT2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <f t="shared" si="0"/>
+        <v>43.478260869565219</v>
+      </c>
+      <c r="AV2">
+        <f t="shared" si="0"/>
+        <v>65.217391304347828</v>
+      </c>
+      <c r="AW2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <f t="shared" si="0"/>
+        <v>21.739130434782609</v>
+      </c>
+      <c r="BA2">
+        <f t="shared" si="0"/>
+        <v>86.956521739130437</v>
+      </c>
+      <c r="BB2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <f t="shared" si="0"/>
+        <v>130.43478260869566</v>
+      </c>
+      <c r="BG2">
+        <f t="shared" si="0"/>
+        <v>21.739130434782609</v>
+      </c>
+      <c r="BH2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <f t="shared" si="0"/>
+        <v>43.478260869565219</v>
+      </c>
+      <c r="BJ2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <f t="shared" si="0"/>
+        <v>130.43478260869566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6499,8 +7745,112 @@
       <c r="G3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="AN3">
+        <f>IF(AND(AN2&lt;12,AN2&gt;0),12,MROUND(AN2,12))</f>
+        <v>24</v>
+      </c>
+      <c r="AO3">
+        <f t="shared" ref="AO3:AS3" si="1">IF(AND(AO2&lt;12,AO2&gt;0),12,MROUND(AO2,12))</f>
+        <v>24</v>
+      </c>
+      <c r="AP3">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="AQ3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="AS3">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="AT3">
+        <f t="shared" ref="AT3" si="2">IF(AND(AT2&lt;12,AT2&gt;0),12,MROUND(AT2,12))</f>
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <f t="shared" ref="AU3" si="3">IF(AND(AU2&lt;12,AU2&gt;0),12,MROUND(AU2,12))</f>
+        <v>48</v>
+      </c>
+      <c r="AV3">
+        <f t="shared" ref="AV3" si="4">IF(AND(AV2&lt;12,AV2&gt;0),12,MROUND(AV2,12))</f>
+        <v>60</v>
+      </c>
+      <c r="AW3">
+        <f t="shared" ref="AW3:AX3" si="5">IF(AND(AW2&lt;12,AW2&gt;0),12,MROUND(AW2,12))</f>
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <f t="shared" ref="AY3" si="6">IF(AND(AY2&lt;12,AY2&gt;0),12,MROUND(AY2,12))</f>
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <f t="shared" ref="AZ3" si="7">IF(AND(AZ2&lt;12,AZ2&gt;0),12,MROUND(AZ2,12))</f>
+        <v>24</v>
+      </c>
+      <c r="BA3">
+        <f t="shared" ref="BA3" si="8">IF(AND(BA2&lt;12,BA2&gt;0),12,MROUND(BA2,12))</f>
+        <v>84</v>
+      </c>
+      <c r="BB3">
+        <f t="shared" ref="BB3:BC3" si="9">IF(AND(BB2&lt;12,BB2&gt;0),12,MROUND(BB2,12))</f>
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <f t="shared" ref="BD3" si="10">IF(AND(BD2&lt;12,BD2&gt;0),12,MROUND(BD2,12))</f>
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <f t="shared" ref="BE3" si="11">IF(AND(BE2&lt;12,BE2&gt;0),12,MROUND(BE2,12))</f>
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <f t="shared" ref="BF3" si="12">IF(AND(BF2&lt;12,BF2&gt;0),12,MROUND(BF2,12))</f>
+        <v>132</v>
+      </c>
+      <c r="BG3">
+        <f t="shared" ref="BG3:BH3" si="13">IF(AND(BG2&lt;12,BG2&gt;0),12,MROUND(BG2,12))</f>
+        <v>24</v>
+      </c>
+      <c r="BH3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <f t="shared" ref="BI3" si="14">IF(AND(BI2&lt;12,BI2&gt;0),12,MROUND(BI2,12))</f>
+        <v>48</v>
+      </c>
+      <c r="BJ3">
+        <f t="shared" ref="BJ3" si="15">IF(AND(BJ2&lt;12,BJ2&gt;0),12,MROUND(BJ2,12))</f>
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <f t="shared" ref="BK3" si="16">IF(AND(BK2&lt;12,BK2&gt;0),12,MROUND(BK2,12))</f>
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <f t="shared" ref="BL3:BM3" si="17">IF(AND(BL2&lt;12,BL2&gt;0),12,MROUND(BL2,12))</f>
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <f t="shared" si="17"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -6524,11 +7874,86 @@
         <f>IF(AND(F4&lt;E4,F4&gt;0),E4,MROUND(F4,12))</f>
         <v>12</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>24</v>
+      </c>
+      <c r="L4">
+        <v>60</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>240</v>
+      </c>
+      <c r="O4">
+        <v>108</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>48</v>
+      </c>
+      <c r="R4">
+        <v>60</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>24</v>
+      </c>
+      <c r="W4">
+        <v>84</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>132</v>
+      </c>
+      <c r="AC4">
+        <v>24</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>48</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -6545,18 +7970,15 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F29" si="0">IF((B5+C5-D5)&lt;0,0,B5+C5-D5)</f>
+        <f t="shared" ref="F5:F29" si="18">IF((B5+C5-D5)&lt;0,0,B5+C5-D5)</f>
         <v>9</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G29" si="1">IF(AND(F5&lt;E5,F5&gt;0),E5,MROUND(F5,12))</f>
+        <f t="shared" ref="G5:G29" si="19">IF(AND(F5&lt;E5,F5&gt;0),E5,MROUND(F5,12))</f>
         <v>12</v>
       </c>
-      <c r="H5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -6570,18 +7992,28 @@
         <v>12</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>32.332999999999998</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>36</v>
       </c>
-      <c r="H6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="Q6" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6">
+        <v>13</v>
+      </c>
+      <c r="S6" s="3">
+        <v>12</v>
+      </c>
+      <c r="T6" s="3"/>
+      <c r="U6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -6598,47 +8030,266 @@
         <v>12</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>55</v>
+      </c>
+      <c r="R7">
+        <v>52</v>
+      </c>
+      <c r="S7" s="3">
+        <v>24</v>
+      </c>
+      <c r="U7">
+        <v>24</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>12</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>24</v>
+      </c>
+      <c r="AD7">
+        <v>12</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>12</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>12</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>12</v>
+      </c>
+      <c r="AR7">
+        <v>12</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>12</v>
+      </c>
+      <c r="BA7">
+        <v>12</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>12</v>
+      </c>
+      <c r="BG7">
+        <v>12</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>12</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:65" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>191</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>84</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>138</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>12</v>
       </c>
-      <c r="F8" s="2">
-        <f t="shared" si="0"/>
+      <c r="F8" s="3">
+        <f t="shared" si="18"/>
         <v>137</v>
       </c>
-      <c r="G8" s="2">
-        <f t="shared" si="1"/>
+      <c r="G8" s="3">
+        <f t="shared" si="19"/>
         <v>132</v>
       </c>
-      <c r="H8" s="2">
+      <c r="Q8" t="s">
+        <v>58</v>
+      </c>
+      <c r="R8">
+        <v>14.333</v>
+      </c>
+      <c r="S8" s="3">
+        <v>60</v>
+      </c>
+      <c r="T8"/>
+      <c r="U8">
+        <v>60</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>24</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>24</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>60</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>240</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>108</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>48</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>60</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>24</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>84</v>
+      </c>
+      <c r="AO8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="3">
         <v>132</v>
       </c>
-      <c r="J8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="AT8" s="3">
+        <v>24</v>
+      </c>
+      <c r="AU8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="3">
+        <v>48</v>
+      </c>
+      <c r="AW8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -6655,18 +8306,27 @@
         <v>12</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>58</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>60</v>
       </c>
-      <c r="H9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="Q9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R9">
+        <v>14.667</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -6683,18 +8343,105 @@
         <v>12</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R10" s="3">
+        <v>191</v>
+      </c>
+      <c r="S10" s="3">
+        <v>240</v>
+      </c>
+      <c r="U10">
+        <v>240</v>
+      </c>
+      <c r="Z10">
+        <v>12</v>
+      </c>
+      <c r="AA10">
+        <v>24</v>
+      </c>
+      <c r="AB10">
+        <v>60</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>240</v>
+      </c>
+      <c r="AE10">
+        <v>108</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>48</v>
+      </c>
+      <c r="AH10">
+        <v>60</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>24</v>
+      </c>
+      <c r="AM10">
+        <v>84</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>132</v>
+      </c>
+      <c r="AS10">
+        <v>24</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>48</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -6711,18 +8458,27 @@
         <v>12</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>28.667000000000002</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
-      <c r="H11">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="Q11" t="s">
+        <v>47</v>
+      </c>
+      <c r="R11">
+        <v>123</v>
+      </c>
+      <c r="S11" s="3">
+        <v>108</v>
+      </c>
+      <c r="U11">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -6739,18 +8495,27 @@
         <v>12</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>41</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>36</v>
       </c>
-      <c r="H12">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="Q12" t="s">
+        <v>53</v>
+      </c>
+      <c r="R12">
+        <v>39</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -6767,18 +8532,27 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R13">
+        <v>27.667000000000002</v>
+      </c>
+      <c r="S13" s="3">
+        <v>48</v>
+      </c>
+      <c r="U13">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -6795,18 +8569,27 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R14">
+        <v>69</v>
+      </c>
+      <c r="S14" s="3">
+        <v>60</v>
+      </c>
+      <c r="U14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -6823,18 +8606,27 @@
         <v>12</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>38</v>
+      </c>
+      <c r="R15">
+        <v>39</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -6851,18 +8643,27 @@
         <v>12</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>6.3329999999999984</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
-      <c r="H16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="Q16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R16">
+        <v>125.667</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -6879,18 +8680,27 @@
         <v>12</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>44</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>48</v>
       </c>
-      <c r="H17">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="Q17" t="s">
+        <v>51</v>
+      </c>
+      <c r="R17">
+        <v>129</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -6907,18 +8717,27 @@
         <v>12</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>44</v>
+      </c>
+      <c r="R18">
+        <v>41.332999999999998</v>
+      </c>
+      <c r="S18" s="3">
+        <v>24</v>
+      </c>
+      <c r="U18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -6935,18 +8754,27 @@
         <v>12</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>40</v>
+      </c>
+      <c r="R19">
+        <v>127</v>
+      </c>
+      <c r="S19" s="3">
+        <v>84</v>
+      </c>
+      <c r="U19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -6963,18 +8791,27 @@
         <v>12</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>59</v>
+      </c>
+      <c r="R20">
+        <v>56</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -6991,18 +8828,27 @@
         <v>12</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>56</v>
+      </c>
+      <c r="R21">
+        <v>59</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -7019,18 +8865,27 @@
         <v>12</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>70.332999999999998</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>72</v>
       </c>
-      <c r="H22">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="Q22" t="s">
+        <v>50</v>
+      </c>
+      <c r="R22">
+        <v>79</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -7047,18 +8902,27 @@
         <v>12</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
-      <c r="H23">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="Q23" t="s">
+        <v>37</v>
+      </c>
+      <c r="R23">
+        <v>34.332999999999998</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -7075,18 +8939,27 @@
         <v>12</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>52</v>
+      </c>
+      <c r="R24">
+        <v>49.332999999999998</v>
+      </c>
+      <c r="S24" s="3">
+        <v>132</v>
+      </c>
+      <c r="U24">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -7103,18 +8976,27 @@
         <v>12</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>29</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
-      <c r="H25">
+      <c r="Q25" t="s">
+        <v>54</v>
+      </c>
+      <c r="R25">
+        <v>74</v>
+      </c>
+      <c r="S25" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="U25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -7131,18 +9013,27 @@
         <v>12</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>43</v>
+      </c>
+      <c r="R26">
+        <v>59.332999999999998</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -7159,18 +9050,27 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>57</v>
+      </c>
+      <c r="R27">
+        <v>45</v>
+      </c>
+      <c r="S27" s="3">
+        <v>48</v>
+      </c>
+      <c r="U27">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -7187,18 +9087,27 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>41</v>
+      </c>
+      <c r="R28">
+        <v>5</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -7212,18 +9121,66 @@
         <v>12</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="18"/>
         <v>73.667000000000002</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>72</v>
       </c>
-      <c r="H29">
-        <v>72</v>
+      <c r="Q29" t="s">
+        <v>42</v>
+      </c>
+      <c r="R29">
+        <v>26</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q30" t="s">
+        <v>60</v>
+      </c>
+      <c r="R30">
+        <v>18.667000000000002</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q31" t="s">
+        <v>62</v>
+      </c>
+      <c r="R31">
+        <v>37.667000000000002</v>
+      </c>
+      <c r="S31" s="3">
+        <v>132</v>
+      </c>
+      <c r="U31">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q32" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="Q6:S32">
+    <sortCondition ref="Q6"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7233,7 +9190,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A4" sqref="A4:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7418,544 +9375,2140 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:BY37"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:U27"/>
+    <sheetView topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AO3" sqref="AO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1">
+        <v>2133</v>
+      </c>
+      <c r="D1">
+        <v>10</v>
+      </c>
+      <c r="E1">
+        <v>280</v>
+      </c>
+      <c r="F1">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
         <v>48</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>4.6529999999999996</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>2.99</v>
-      </c>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="L1" t="s">
         <v>55</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>2.5249999999999999</v>
-      </c>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>37</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>20</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>10</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+      <c r="Q2">
+        <v>10</v>
+      </c>
+      <c r="R2">
+        <v>10</v>
+      </c>
+      <c r="S2">
+        <v>10</v>
+      </c>
+      <c r="T2">
+        <v>10</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>20</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>10</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>10</v>
+      </c>
+      <c r="AB2">
+        <v>30</v>
+      </c>
+      <c r="AC2">
+        <v>30</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>10</v>
+      </c>
+      <c r="AF2">
+        <v>10</v>
+      </c>
+      <c r="AG2">
+        <v>10</v>
+      </c>
+      <c r="AH2">
+        <v>20</v>
+      </c>
+      <c r="AI2">
+        <v>10</v>
+      </c>
+      <c r="AJ2">
+        <v>10</v>
+      </c>
+      <c r="AK2">
+        <f>SUM(K2:AJ2)</f>
+        <v>280</v>
+      </c>
+      <c r="AL2">
+        <v>100</v>
+      </c>
+      <c r="AM2">
+        <f>AL2/AK2</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="AN2">
+        <v>10</v>
+      </c>
+      <c r="AO2">
+        <f>K2*$AM$2</f>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="AP2">
+        <f t="shared" ref="AP2:BN2" si="0">L2*$AM$2</f>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="AQ2">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="AR2">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="AS2">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="AT2">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="AU2">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="AV2">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="AW2">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="AX2">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="AY2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="BA2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="BC2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="BF2">
+        <f t="shared" si="0"/>
+        <v>10.714285714285715</v>
+      </c>
+      <c r="BG2">
+        <f t="shared" si="0"/>
+        <v>10.714285714285715</v>
+      </c>
+      <c r="BH2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="BJ2">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="BK2">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="BL2">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="BM2">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="BN2">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285716</v>
+      </c>
+    </row>
+    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="AO3">
+        <f>IF(AND(AO2&lt;10,AO2&gt;0),10,MROUND(AO2,10))</f>
+        <v>10</v>
+      </c>
+      <c r="AP3">
+        <f t="shared" ref="AP3:BN3" si="1">IF(AND(AP2&lt;10,AP2&gt;0),10,MROUND(AP2,10))</f>
+        <v>10</v>
+      </c>
+      <c r="AQ3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AR3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AS3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AT3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AU3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AV3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AW3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AX3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AY3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="BA3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="BC3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="BF3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="BG3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="BH3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="BJ3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="BK3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="BL3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="BM3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="BN3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>10</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>10</v>
+      </c>
+      <c r="AT4">
+        <v>10</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>10</v>
+      </c>
+      <c r="AW4">
+        <v>10</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>10</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>10</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>10</v>
+      </c>
+      <c r="BF4">
+        <v>10</v>
+      </c>
+      <c r="BG4">
+        <v>10</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>1.2769999999999999</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <f>IF((B5+C5-D5)&lt;0,0,B5+C5-D5)</f>
+        <v>10.276999999999999</v>
+      </c>
+      <c r="G5">
+        <f>IF(AND(F5&lt;E5,F5&gt;0),E5,MROUND(F5,10))</f>
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>10</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="R5">
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <v>10</v>
+      </c>
+      <c r="T5">
+        <v>10</v>
+      </c>
+      <c r="U5">
+        <v>10</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>10</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>10</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>10</v>
+      </c>
+      <c r="AC5">
+        <v>10</v>
+      </c>
+      <c r="AD5">
+        <v>10</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>10</v>
+      </c>
+      <c r="AG5">
+        <v>10</v>
+      </c>
+      <c r="AH5">
+        <v>10</v>
+      </c>
+      <c r="AI5">
+        <v>10</v>
+      </c>
+      <c r="AJ5">
+        <v>10</v>
+      </c>
+      <c r="AK5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F30" si="2">IF((B6+C6-D6)&lt;0,0,B6+C6-D6)</f>
+        <v>10.5</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G30" si="3">IF(AND(F6&lt;E6,F6&gt;0),E6,MROUND(F6,10))</f>
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>58</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0.70199999999999996</v>
-      </c>
-      <c r="E4">
-        <v>5.859</v>
-      </c>
-      <c r="F4">
-        <v>0.51</v>
-      </c>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B7">
+        <v>11.715</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>21.715</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>61</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>2.84</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="B8">
+        <v>1.75</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>4.75</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>10</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>10</v>
+      </c>
+      <c r="V8">
+        <v>10</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>10</v>
+      </c>
+      <c r="Y8">
+        <v>10</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>10</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>10</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>10</v>
+      </c>
+      <c r="AH8">
+        <v>10</v>
+      </c>
+      <c r="AI8">
+        <v>10</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>14.205</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>3.2049999999999983</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>10</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>10</v>
+      </c>
+      <c r="AB9">
+        <v>10</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>10</v>
+      </c>
+      <c r="AE9">
+        <v>10</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>10</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>10</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>10</v>
+      </c>
+      <c r="AN9">
+        <v>10</v>
+      </c>
+      <c r="AO9">
+        <v>10</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10">
+        <v>5.9269999999999996</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>4.9269999999999996</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>9.004999999999999</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="AZ11">
+        <v>10</v>
+      </c>
+      <c r="BA11">
+        <v>10</v>
+      </c>
+      <c r="BB11">
+        <v>10</v>
+      </c>
+      <c r="BC11">
+        <v>10</v>
+      </c>
+      <c r="BD11">
+        <v>10</v>
+      </c>
+      <c r="BE11">
+        <v>10</v>
+      </c>
+      <c r="BF11">
+        <v>10</v>
+      </c>
+      <c r="BG11">
+        <v>10</v>
+      </c>
+      <c r="BH11">
+        <v>10</v>
+      </c>
+      <c r="BI11">
+        <v>10</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>10</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>10</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>10</v>
+      </c>
+      <c r="BQ11">
+        <v>10</v>
+      </c>
+      <c r="BR11">
+        <v>10</v>
+      </c>
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>10</v>
+      </c>
+      <c r="BU11">
+        <v>10</v>
+      </c>
+      <c r="BV11">
+        <v>10</v>
+      </c>
+      <c r="BW11">
+        <v>10</v>
+      </c>
+      <c r="BX11">
+        <v>10</v>
+      </c>
+      <c r="BY11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>5.8869999999999996</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>8.8870000000000005</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="P12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q12">
+        <v>1.2769999999999999</v>
+      </c>
+      <c r="R12">
+        <v>10</v>
+      </c>
+      <c r="S12">
+        <f>R12-10</f>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="P13" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q13">
+        <v>0.5</v>
+      </c>
+      <c r="R13">
+        <v>10</v>
+      </c>
+      <c r="S13">
+        <f>R13-10</f>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>3.5649999999999999</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>9.5649999999999995</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="P14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q14">
+        <v>11.715</v>
+      </c>
+      <c r="R14">
+        <v>10</v>
+      </c>
+      <c r="S14">
+        <v>10</v>
+      </c>
+      <c r="T14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <v>11.54</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>39</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q15">
+        <v>1.75</v>
+      </c>
+      <c r="R15">
+        <v>10</v>
+      </c>
+      <c r="S15">
+        <f>R15-10</f>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16">
+        <v>15.555</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>17.555</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <v>20</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="P16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q16">
+        <v>14.205</v>
+      </c>
+      <c r="R16">
+        <v>10</v>
+      </c>
+      <c r="S16">
+        <v>10</v>
+      </c>
+      <c r="T16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
         <v>4.8899999999999997</v>
       </c>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>5.85</v>
-      </c>
-      <c r="E6">
-        <v>4.6660000000000004</v>
-      </c>
-      <c r="F6">
-        <v>2.4449999999999998</v>
-      </c>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
         <v>47</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>3.51</v>
-      </c>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="Q17">
+        <v>5.9269999999999996</v>
+      </c>
+      <c r="R17">
+        <v>10</v>
+      </c>
+      <c r="S17">
+        <v>10</v>
+      </c>
+      <c r="T17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>15.385</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>14.384999999999998</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="P18" t="s">
         <v>53</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1.165</v>
-      </c>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="Q18">
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="R18">
+        <v>10</v>
+      </c>
+      <c r="S18">
+        <f>R18-10</f>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19">
+        <v>4.6820000000000004</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
         <v>39</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>7.335</v>
-      </c>
-      <c r="F9">
-        <v>3.395</v>
-      </c>
-      <c r="G9">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="Q19">
+        <v>5.8869999999999996</v>
+      </c>
+      <c r="R19">
+        <v>10</v>
+      </c>
+      <c r="S19">
+        <v>10</v>
+      </c>
+      <c r="T19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
+        <v>4.157</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>28</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="s">
         <v>45</v>
       </c>
-      <c r="B10">
-        <v>1.335</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1.548</v>
-      </c>
-      <c r="F10">
-        <v>2.105</v>
-      </c>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="Q20">
+        <v>9</v>
+      </c>
+      <c r="R20">
+        <v>10</v>
+      </c>
+      <c r="S20">
+        <v>10</v>
+      </c>
+      <c r="T20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21">
+        <v>6.8639999999999999</v>
+      </c>
+      <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>2.8640000000000008</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="P21" t="s">
         <v>38</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>3.7679999999999998</v>
-      </c>
-      <c r="G11">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="Q21">
+        <v>3.5649999999999999</v>
+      </c>
+      <c r="R21">
+        <v>10</v>
+      </c>
+      <c r="S21">
+        <f>R21-10</f>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22">
+        <v>5.68</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>-2</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>27.68</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="H22">
+        <v>30</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+      <c r="P22" t="s">
         <v>46</v>
       </c>
-      <c r="B12">
-        <v>1.24</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>8.8450000000000006</v>
-      </c>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="Q22">
+        <v>11.54</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23">
+        <v>4.3949999999999996</v>
+      </c>
+      <c r="C23">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>-1</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>30.395</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="H23">
+        <v>30</v>
+      </c>
+      <c r="J23">
+        <v>10</v>
+      </c>
+      <c r="P23" t="s">
         <v>51</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>6.45</v>
-      </c>
-      <c r="E13">
-        <v>6.7850000000000001</v>
-      </c>
-      <c r="F13">
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="Q23">
+        <v>15.555</v>
+      </c>
+      <c r="R23">
+        <v>10</v>
+      </c>
+      <c r="S23">
+        <v>10</v>
+      </c>
+      <c r="T23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24">
+        <v>7.2919999999999998</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>19</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="s">
         <v>44</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>3.03</v>
-      </c>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="Q24">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25">
+        <v>5.8760000000000003</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>11.876000000000001</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="P25" t="s">
         <v>40</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>9.9580000000000002</v>
-      </c>
-      <c r="F15">
-        <v>8.7530000000000001</v>
-      </c>
-      <c r="G15">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="Q25">
+        <v>15.385</v>
+      </c>
+      <c r="R25">
+        <v>10</v>
+      </c>
+      <c r="S25">
+        <v>10</v>
+      </c>
+      <c r="T25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26">
+        <v>2.665</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>12.664999999999999</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>10</v>
+      </c>
+      <c r="P26" t="s">
         <v>59</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>6.6420000000000003</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1.7070000000000001</v>
-      </c>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="Q26">
+        <v>4.6820000000000004</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27">
+        <v>2.3580000000000001</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>-2</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>14.358000000000001</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>10</v>
+      </c>
+      <c r="P27" t="s">
         <v>56</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>22.5</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="Q27">
+        <v>4.157</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28">
+        <v>2.5880000000000001</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>-1</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>23.588000000000001</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H28">
+        <v>20</v>
+      </c>
+      <c r="J28">
+        <v>10</v>
+      </c>
+      <c r="P28" t="s">
         <v>50</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>1.9990000000000001</v>
-      </c>
-      <c r="F18">
-        <v>6.8040000000000003</v>
-      </c>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="Q28">
+        <v>6.8639999999999999</v>
+      </c>
+      <c r="R28">
+        <v>10</v>
+      </c>
+      <c r="S28">
+        <v>10</v>
+      </c>
+      <c r="T28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29">
+        <v>1.4330000000000001</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>-1</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>12.433</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <v>10</v>
+      </c>
+      <c r="P29" t="s">
         <v>37</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>6.3529999999999998</v>
-      </c>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="Q29">
+        <v>5.68</v>
+      </c>
+      <c r="R29">
+        <v>10</v>
+      </c>
+      <c r="S29">
+        <v>10</v>
+      </c>
+      <c r="T29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>14.478</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
+      <c r="J30">
+        <v>10</v>
+      </c>
+      <c r="P30" t="s">
         <v>52</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>4.157</v>
-      </c>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="Q30">
+        <v>4.3949999999999996</v>
+      </c>
+      <c r="R30">
+        <v>10</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>280</v>
+      </c>
+      <c r="P31" t="s">
         <v>54</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>1.0169999999999999</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>3.94</v>
-      </c>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="Q31">
+        <v>7.2919999999999998</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P32" t="s">
         <v>43</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>3.3330000000000002</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>5.1079999999999997</v>
-      </c>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="Q32">
+        <v>5.8760000000000003</v>
+      </c>
+      <c r="R32">
+        <v>10</v>
+      </c>
+      <c r="S32">
+        <v>10</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P33" t="s">
         <v>57</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>2.3679999999999999</v>
-      </c>
-      <c r="E23">
-        <v>6.35</v>
-      </c>
-      <c r="F23">
-        <v>7.6619999999999999</v>
-      </c>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="Q33">
+        <v>2.665</v>
+      </c>
+      <c r="R33">
+        <v>10</v>
+      </c>
+      <c r="S33">
+        <f>R33-10</f>
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P34" t="s">
         <v>41</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>3.093</v>
-      </c>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="Q34">
+        <v>2.3580000000000001</v>
+      </c>
+      <c r="R34">
+        <v>10</v>
+      </c>
+      <c r="S34">
+        <f>R34-10</f>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P35" t="s">
         <v>42</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>7.0549999999999997</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1.2070000000000001</v>
-      </c>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="Q35">
+        <v>2.5880000000000001</v>
+      </c>
+      <c r="R35">
+        <v>10</v>
+      </c>
+      <c r="S35">
+        <f>R35-10</f>
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P36" t="s">
         <v>60</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="Q36">
+        <v>1.4330000000000001</v>
+      </c>
+      <c r="R36">
+        <v>10</v>
+      </c>
+      <c r="S36">
+        <f>R36-10</f>
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
         <v>62</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0.16</v>
-      </c>
-      <c r="Y27" s="1"/>
+      <c r="Q37">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="R37">
+        <v>10</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="P12:S37">
+    <sortCondition ref="P12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>